--- a/raw_data/2013salary.xlsx
+++ b/raw_data/2013salary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="900" windowWidth="27760" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="27760" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2089,11 +2089,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C535" sqref="C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
